--- a/커뮤니티 좋아요 더미데이터.xlsx
+++ b/커뮤니티 좋아요 더미데이터.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D96F7C-6099-4F2D-BF36-9ADB9C89917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WebProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB8F139-6492-4911-B356-39E13D9C81FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8430" yWindow="1335" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,22 +38,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>MEMBER_NUMBER</t>
+    <t>COMMUNITY_NUMBER</t>
   </si>
   <si>
-    <t>COMMUNITY_NUMBER</t>
+    <t>MEMBER_NUMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -408,27 +421,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -436,7 +449,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -444,7 +457,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -452,7 +465,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -460,7 +473,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -468,7 +481,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -476,7 +489,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -484,7 +497,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -492,7 +505,336 @@
         <v>259</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>237</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>